--- a/models/Multi_dimentional_data_covar/14_Kompetenz_Wirtschaft_2.xlsx
+++ b/models/Multi_dimentional_data_covar/14_Kompetenz_Wirtschaft_2.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8835"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15180" windowHeight="8840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="92512" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -37,6 +42,9 @@
   </si>
   <si>
     <t>Parteikompetenz: Wirtschaft</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -114,14 +122,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -129,23 +137,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -184,7 +192,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,21 +491,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle1"/>
+  <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:FN318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:G5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7">
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
@@ -507,7 +515,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" s="3" customFormat="1">
       <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
@@ -517,7 +525,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -525,12 +533,12 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15">
       <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
@@ -540,7 +548,10 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>36266</v>
       </c>
@@ -571,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>36364</v>
       </c>
@@ -588,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>36392</v>
       </c>
@@ -605,7 +616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>36427</v>
       </c>
@@ -622,7 +633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>36448</v>
       </c>
@@ -639,7 +650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>36476</v>
       </c>
@@ -656,7 +667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" s="6">
         <v>36504</v>
       </c>
@@ -673,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" s="6">
         <v>36546</v>
       </c>
@@ -690,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6">
       <c r="B18" s="6">
         <v>36574</v>
       </c>
@@ -707,7 +718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6">
       <c r="B19" s="6">
         <v>36602</v>
       </c>
@@ -724,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6">
       <c r="B20" s="6">
         <v>36630</v>
       </c>
@@ -741,7 +752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6">
       <c r="B21" s="6">
         <v>36665</v>
       </c>
@@ -758,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6">
       <c r="B22" s="6">
         <v>36700</v>
       </c>
@@ -775,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="6">
         <v>36735</v>
       </c>
@@ -792,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" s="6">
         <v>36763</v>
       </c>
@@ -809,7 +820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" s="6">
         <v>36791</v>
       </c>
@@ -826,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" s="6">
         <v>36819</v>
       </c>
@@ -843,7 +854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" s="6">
         <v>36847</v>
       </c>
@@ -860,7 +871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" s="6">
         <v>36875</v>
       </c>
@@ -877,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" s="6">
         <v>36910</v>
       </c>
@@ -894,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" s="6">
         <v>36938</v>
       </c>
@@ -911,7 +922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="6">
         <v>36966</v>
       </c>
@@ -928,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="6">
         <v>36987</v>
       </c>
@@ -945,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="6">
         <v>37029</v>
       </c>
@@ -962,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="6">
         <v>37064</v>
       </c>
@@ -979,7 +990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="6">
         <v>37092</v>
       </c>
@@ -996,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="6">
         <v>37127</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="6">
         <v>37148</v>
       </c>
@@ -1030,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="6">
         <v>37176</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6">
       <c r="B39" s="6">
         <v>37211</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6">
       <c r="B40" s="6">
         <v>37239</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6">
       <c r="B41" s="6">
         <v>37274</v>
       </c>
@@ -1098,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6">
       <c r="B42" s="6">
         <v>37309</v>
       </c>
@@ -1115,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6">
       <c r="B43" s="6">
         <v>37337</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6">
       <c r="B44" s="6">
         <v>37372</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6">
       <c r="B45" s="6">
         <v>37386</v>
       </c>
@@ -1164,7 +1175,7 @@
       </c>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6">
       <c r="B46" s="6">
         <v>37407</v>
       </c>
@@ -1181,7 +1192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6">
       <c r="B47" s="6">
         <v>37435</v>
       </c>
@@ -1198,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6">
       <c r="B48" s="6">
         <v>37449</v>
       </c>
@@ -1213,7 +1224,7 @@
       </c>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6">
       <c r="B49" s="6">
         <v>37463</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6">
       <c r="B50" s="6">
         <v>37477</v>
       </c>
@@ -1245,7 +1256,7 @@
       </c>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6">
       <c r="B51" s="6">
         <v>37491</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6">
       <c r="B52" s="6">
         <v>37498</v>
       </c>
@@ -1277,7 +1288,7 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6">
       <c r="B53" s="6">
         <v>37505</v>
       </c>
@@ -1292,7 +1303,7 @@
       </c>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6">
       <c r="B54" s="6">
         <v>37512</v>
       </c>
@@ -1309,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6">
       <c r="B55" s="6">
         <v>37547</v>
       </c>
@@ -1326,7 +1337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6">
       <c r="B56" s="6">
         <v>37575</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6">
       <c r="B57" s="6">
         <v>37603</v>
       </c>
@@ -1360,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6">
       <c r="B58" s="6">
         <v>37645</v>
       </c>
@@ -1377,7 +1388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6">
       <c r="B59" s="6">
         <v>37659</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6">
       <c r="B60" s="6">
         <v>37673</v>
       </c>
@@ -1411,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6">
       <c r="B61" s="6">
         <v>37694</v>
       </c>
@@ -1428,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6">
       <c r="B62" s="6">
         <v>37708</v>
       </c>
@@ -1445,7 +1456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6">
       <c r="B63" s="6">
         <v>37722</v>
       </c>
@@ -1462,7 +1473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6">
       <c r="B64" s="6">
         <v>37743</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6">
       <c r="B65" s="6">
         <v>37757</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6">
       <c r="B66" s="6">
         <v>37778</v>
       </c>
@@ -1513,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6">
       <c r="B67" s="6">
         <v>37799</v>
       </c>
@@ -1530,7 +1541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6">
       <c r="B68" s="6">
         <v>37820</v>
       </c>
@@ -1547,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6">
       <c r="B69" s="6">
         <v>37855</v>
       </c>
@@ -1564,7 +1575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6">
       <c r="B70" s="6">
         <v>37876</v>
       </c>
@@ -1581,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6">
       <c r="B71" s="6">
         <v>37904</v>
       </c>
@@ -1598,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6">
       <c r="B72" s="6">
         <v>37918</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6">
       <c r="B73" s="6">
         <v>37939</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6">
       <c r="B74" s="6">
         <v>37953</v>
       </c>
@@ -1649,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6">
       <c r="B75" s="6">
         <v>37967</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6">
       <c r="B76" s="6">
         <v>38002</v>
       </c>
@@ -1683,7 +1694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6">
       <c r="B77" s="6">
         <v>38030</v>
       </c>
@@ -1700,7 +1711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6">
       <c r="B78" s="6">
         <v>38051</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6">
       <c r="B79" s="6">
         <v>38065</v>
       </c>
@@ -1734,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6">
       <c r="B80" s="6">
         <v>38079</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6">
       <c r="B81" s="6">
         <v>38100</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6">
       <c r="B82" s="6">
         <v>38121</v>
       </c>
@@ -1785,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6">
       <c r="B83" s="6">
         <v>38135</v>
       </c>
@@ -1802,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6">
       <c r="B84" s="6">
         <v>38163</v>
       </c>
@@ -1819,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6">
       <c r="B85" s="6">
         <v>38177</v>
       </c>
@@ -1836,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6">
       <c r="B86" s="6">
         <v>38191</v>
       </c>
@@ -1853,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6">
       <c r="B87" s="6">
         <v>38226</v>
       </c>
@@ -1870,7 +1881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6">
       <c r="B88" s="6">
         <v>38254</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6">
       <c r="B89" s="6">
         <v>38275</v>
       </c>
@@ -1904,7 +1915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6">
       <c r="B90" s="6">
         <v>38289</v>
       </c>
@@ -1921,7 +1932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6">
       <c r="B91" s="6">
         <v>38303</v>
       </c>
@@ -1938,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6">
       <c r="B92" s="6">
         <v>38317</v>
       </c>
@@ -1955,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6">
       <c r="B93" s="6">
         <v>38331</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6">
       <c r="B94" s="6">
         <v>38366</v>
       </c>
@@ -1989,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6">
       <c r="B95" s="6">
         <v>38380</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6">
       <c r="B96" s="6">
         <v>38408</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6">
       <c r="B97" s="6">
         <v>38429</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6">
       <c r="B98" s="6">
         <v>38457</v>
       </c>
@@ -2057,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6">
       <c r="B99" s="6">
         <v>38471</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6">
       <c r="B100" s="6">
         <v>38499</v>
       </c>
@@ -2091,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6">
       <c r="B101" s="6">
         <v>38513</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6">
       <c r="B102" s="6">
         <v>38527</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6">
       <c r="B103" s="6">
         <v>38541</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6">
       <c r="B104" s="6">
         <v>38555</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6">
       <c r="B105" s="6">
         <v>38569</v>
       </c>
@@ -2176,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6">
       <c r="B106" s="6">
         <v>38576</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6">
       <c r="B107" s="6">
         <v>38583</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6">
       <c r="B108" s="6">
         <v>38590</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6">
       <c r="B109" s="6">
         <v>38597</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6">
       <c r="B110" s="6">
         <v>38604</v>
       </c>
@@ -2261,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6">
       <c r="B111" s="6">
         <v>38618</v>
       </c>
@@ -2278,7 +2289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6">
       <c r="B112" s="6">
         <v>38632</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6">
       <c r="B113" s="6">
         <v>38639</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6">
       <c r="B114" s="6">
         <v>38653</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6">
       <c r="B115" s="6">
         <v>38667</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6">
       <c r="B116" s="6">
         <v>38681</v>
       </c>
@@ -2363,7 +2374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6">
       <c r="B117" s="6">
         <v>38695</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6">
       <c r="B118" s="6">
         <v>38730</v>
       </c>
@@ -2397,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6">
       <c r="B119" s="6">
         <v>38744</v>
       </c>
@@ -2414,7 +2425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6">
       <c r="B120" s="6">
         <v>38765</v>
       </c>
@@ -2431,7 +2442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6">
       <c r="B121" s="6">
         <v>38786</v>
       </c>
@@ -2448,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6">
       <c r="B122" s="6">
         <v>38814</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6">
       <c r="B123" s="6">
         <v>38835</v>
       </c>
@@ -2482,7 +2493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6">
       <c r="B124" s="6">
         <v>38856</v>
       </c>
@@ -2499,7 +2510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6">
       <c r="B125" s="6">
         <v>38884</v>
       </c>
@@ -2516,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6">
       <c r="B126" s="6">
         <v>38912</v>
       </c>
@@ -2533,7 +2544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6">
       <c r="B127" s="6">
         <v>38947</v>
       </c>
@@ -2550,7 +2561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6">
       <c r="B128" s="6">
         <v>38961</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:6">
       <c r="B129" s="6">
         <v>38989</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:6">
       <c r="B130" s="6">
         <v>39003</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:6">
       <c r="B131" s="6">
         <v>39017</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:6">
       <c r="B132" s="6">
         <v>39031</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:6">
       <c r="B133" s="6">
         <v>39045</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:6">
       <c r="B134" s="6">
         <v>39066</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:6">
       <c r="B135" s="6">
         <v>39094</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6">
       <c r="B136" s="6">
         <v>39122</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6">
       <c r="B137" s="6">
         <v>39143</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6">
       <c r="B138" s="6">
         <v>39157</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6">
       <c r="B139" s="6">
         <v>39171</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6">
       <c r="B140" s="6">
         <v>39192</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6">
       <c r="B141" s="6">
         <v>39220</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6">
       <c r="B142" s="6">
         <v>39234</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:6">
       <c r="B143" s="6">
         <v>39255</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6">
       <c r="B144" s="6">
         <v>39283</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6">
       <c r="B145" s="6">
         <v>39311</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6">
       <c r="B146" s="6">
         <v>39339</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6">
       <c r="B147" s="6">
         <v>39360</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6">
       <c r="B148" s="6">
         <v>39374</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6">
       <c r="B149" s="6">
         <v>39395</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6">
       <c r="B150" s="6">
         <v>39409</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6">
       <c r="B151" s="6">
         <v>39430</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6">
       <c r="B152" s="6">
         <v>39458</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6">
       <c r="B153" s="6">
         <v>39486</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6">
       <c r="B154" s="6">
         <v>39507</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6">
       <c r="B155" s="6">
         <v>39521</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6">
       <c r="B156" s="6">
         <v>39542</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6">
       <c r="B157" s="6">
         <v>39556</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6">
       <c r="B158" s="6">
         <v>39577</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6">
       <c r="B159" s="6">
         <v>39598</v>
       </c>
@@ -3094,7 +3105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6">
       <c r="B160" s="6">
         <v>39612</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6">
       <c r="B161" s="6">
         <v>39640</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6">
       <c r="B162" s="6">
         <v>39675</v>
       </c>
@@ -3145,7 +3156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6">
       <c r="B163" s="6">
         <v>39703</v>
       </c>
@@ -3162,7 +3173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6">
       <c r="B164" s="6">
         <v>39731</v>
       </c>
@@ -3179,7 +3190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6">
       <c r="B165" s="6">
         <v>39745</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6">
       <c r="B166" s="6">
         <v>39759</v>
       </c>
@@ -3213,7 +3224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6">
       <c r="B167" s="6">
         <v>39773</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6">
       <c r="B168" s="6">
         <v>39794</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6">
       <c r="B169" s="6">
         <v>39822</v>
       </c>
@@ -3264,7 +3275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6">
       <c r="B170" s="6">
         <v>39843</v>
       </c>
@@ -3281,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6">
       <c r="B171" s="6">
         <v>39857</v>
       </c>
@@ -3298,7 +3309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6">
       <c r="B172" s="6">
         <v>39878</v>
       </c>
@@ -3315,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6">
       <c r="B173" s="6">
         <v>39899</v>
       </c>
@@ -3332,7 +3343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6">
       <c r="B174" s="6">
         <v>39927</v>
       </c>
@@ -3349,7 +3360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6">
       <c r="B175" s="6">
         <v>39941</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6">
       <c r="B176" s="6">
         <v>39962</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6">
       <c r="B177" s="6">
         <v>39976</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6">
       <c r="B178" s="6">
         <v>39997</v>
       </c>
@@ -3417,7 +3428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:6">
       <c r="B179" s="6">
         <v>40018</v>
       </c>
@@ -3434,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6">
       <c r="B180" s="6">
         <v>40032</v>
       </c>
@@ -3451,7 +3462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:6">
       <c r="B181" s="6">
         <v>40046</v>
       </c>
@@ -3468,7 +3479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6">
       <c r="B182" s="6">
         <v>40053</v>
       </c>
@@ -3485,7 +3496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6">
       <c r="B183" s="6">
         <v>40060</v>
       </c>
@@ -3502,7 +3513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6">
       <c r="B184" s="6">
         <v>40067</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:6">
       <c r="B185" s="6">
         <v>40074</v>
       </c>
@@ -3536,7 +3547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6">
       <c r="B186" s="6">
         <v>40088</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6">
       <c r="B187" s="6">
         <v>40102</v>
       </c>
@@ -3570,7 +3581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6">
       <c r="B188" s="6">
         <v>40116</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6">
       <c r="B189" s="6">
         <v>40144</v>
       </c>
@@ -3604,7 +3615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6">
       <c r="B190" s="6">
         <v>40158</v>
       </c>
@@ -3621,7 +3632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6">
       <c r="B191" s="6">
         <v>40193</v>
       </c>
@@ -3638,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6">
       <c r="B192" s="6">
         <v>40207</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:6">
       <c r="B193" s="6">
         <v>40235</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:6">
       <c r="B194" s="6">
         <v>40249</v>
       </c>
@@ -3689,7 +3700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:6">
       <c r="B195" s="6">
         <v>40263</v>
       </c>
@@ -3706,7 +3717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:6">
       <c r="B196" s="6">
         <v>40291</v>
       </c>
@@ -3723,7 +3734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:6">
       <c r="B197" s="6">
         <v>40319</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:6">
       <c r="B198" s="6">
         <v>40333</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:6">
       <c r="B199" s="6">
         <v>40347</v>
       </c>
@@ -3774,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:6">
       <c r="B200" s="6">
         <v>40375</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:6">
       <c r="B201" s="6">
         <v>40417</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:6">
       <c r="B202" s="6">
         <v>40431</v>
       </c>
@@ -3825,7 +3836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:6">
       <c r="B203" s="6">
         <v>40445</v>
       </c>
@@ -3842,7 +3853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:6">
       <c r="B204" s="6">
         <v>40452</v>
       </c>
@@ -3859,7 +3870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:6">
       <c r="B205" s="6">
         <v>40473</v>
       </c>
@@ -3876,7 +3887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:6">
       <c r="B206" s="6">
         <v>40494</v>
       </c>
@@ -3893,7 +3904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:6">
       <c r="B207" s="6">
         <v>40515</v>
       </c>
@@ -3910,7 +3921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:6">
       <c r="B208" s="6">
         <v>40529</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:170">
       <c r="B209" s="6">
         <v>40557</v>
       </c>
@@ -3944,7 +3955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:170">
       <c r="B210" s="6">
         <v>40571</v>
       </c>
@@ -3961,7 +3972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:170">
       <c r="B211" s="6">
         <v>40585</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:170">
       <c r="B212" s="6">
         <v>40599</v>
       </c>
@@ -3995,7 +4006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:170">
       <c r="B213" s="6">
         <v>40634</v>
       </c>
@@ -4012,7 +4023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:170">
       <c r="B214" s="6">
         <v>40648</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:170">
       <c r="B215" s="6">
         <v>40669</v>
       </c>
@@ -4046,7 +4057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:170">
       <c r="B216" s="6">
         <v>40690</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:170">
       <c r="B217" s="6">
         <v>40704</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="218" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:170">
       <c r="B218" s="6">
         <v>40739</v>
       </c>
@@ -4097,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:170">
       <c r="B219" s="6">
         <v>40767</v>
       </c>
@@ -4114,7 +4125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:170">
       <c r="B220" s="6">
         <v>40795</v>
       </c>
@@ -4131,7 +4142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:170">
       <c r="B221" s="6">
         <v>40809</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:170">
       <c r="B222" s="6">
         <v>40830</v>
       </c>
@@ -4165,7 +4176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:170">
       <c r="B223" s="6">
         <v>40844</v>
       </c>
@@ -4183,7 +4194,7 @@
       </c>
       <c r="FN223" s="4"/>
     </row>
-    <row r="224" spans="2:170" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:170">
       <c r="B224" s="6">
         <v>40858</v>
       </c>
@@ -4201,7 +4212,7 @@
       </c>
       <c r="FN224" s="4"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:6">
       <c r="B225" s="6">
         <v>40872</v>
       </c>
@@ -4218,7 +4229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:6">
       <c r="B226" s="6">
         <v>40893</v>
       </c>
@@ -4235,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:6">
       <c r="B227" s="6">
         <v>40921</v>
       </c>
@@ -4252,7 +4263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:6">
       <c r="B228" s="6">
         <v>40935</v>
       </c>
@@ -4269,7 +4280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:6">
       <c r="B229" s="6">
         <v>40949</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:6">
       <c r="B230" s="6">
         <v>40977</v>
       </c>
@@ -4303,7 +4314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:6">
       <c r="B231" s="6">
         <v>40998</v>
       </c>
@@ -4320,7 +4331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:6">
       <c r="B232" s="6">
         <v>41026</v>
       </c>
@@ -4337,7 +4348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:6">
       <c r="B233" s="6">
         <v>41054</v>
       </c>
@@ -4354,7 +4365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:6">
       <c r="B234" s="6">
         <v>41075</v>
       </c>
@@ -4371,7 +4382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:6">
       <c r="B235" s="6">
         <v>41103</v>
       </c>
@@ -4388,7 +4399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:6" s="5" customFormat="1">
       <c r="B236" s="6">
         <v>41145</v>
       </c>
@@ -4405,7 +4416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:6" s="5" customFormat="1">
       <c r="B237" s="6">
         <v>41166</v>
       </c>
@@ -4422,7 +4433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:6">
       <c r="B238" s="8">
         <v>41180</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:6">
       <c r="B239" s="8">
         <v>41193</v>
       </c>
@@ -4456,7 +4467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:6">
       <c r="B240" s="8">
         <v>41208</v>
       </c>
@@ -4473,7 +4484,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6">
       <c r="B241" s="8">
         <v>41229</v>
       </c>
@@ -4490,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6">
       <c r="B242" s="10">
         <v>41243</v>
       </c>
@@ -4507,7 +4518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6">
       <c r="B243" s="10">
         <v>41257</v>
       </c>
@@ -4524,7 +4535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6">
       <c r="B244" s="10">
         <v>41285</v>
       </c>
@@ -4541,7 +4552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6">
       <c r="B245" s="10">
         <v>41299</v>
       </c>
@@ -4558,7 +4569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6">
       <c r="B246" s="10">
         <v>41327</v>
       </c>
@@ -4575,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6">
       <c r="B247" s="10">
         <v>41341</v>
       </c>
@@ -4592,7 +4603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:6">
       <c r="B248" s="10">
         <v>41355</v>
       </c>
@@ -4609,7 +4620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6">
       <c r="B249" s="10">
         <v>41376</v>
       </c>
@@ -4626,7 +4637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:6">
       <c r="B250" s="10">
         <v>41390</v>
       </c>
@@ -4643,7 +4654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:6">
       <c r="B251" s="10">
         <v>41411</v>
       </c>
@@ -4660,7 +4671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6">
       <c r="B252" s="10">
         <v>41432</v>
       </c>
@@ -4677,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:6">
       <c r="B253" s="10">
         <v>41453</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:6">
       <c r="B254" s="10">
         <v>41467</v>
       </c>
@@ -4711,7 +4722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6">
       <c r="B255" s="10">
         <v>41488</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6">
       <c r="B256" s="10">
         <v>41502</v>
       </c>
@@ -4745,7 +4756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:6">
       <c r="B257" s="10">
         <v>41509</v>
       </c>
@@ -4762,7 +4773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:6">
       <c r="B258" s="10">
         <v>41515</v>
       </c>
@@ -4779,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:6">
       <c r="B259" s="10">
         <v>41522</v>
       </c>
@@ -4796,7 +4807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="2:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:6" s="12" customFormat="1">
       <c r="B260" s="6">
         <v>41530</v>
       </c>
@@ -4813,7 +4824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:6">
       <c r="B261" s="10">
         <v>41544</v>
       </c>
@@ -4830,7 +4841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:6">
       <c r="B262" s="10">
         <v>41565</v>
       </c>
@@ -4847,7 +4858,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:6">
       <c r="B263" s="10">
         <v>41586</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:6">
       <c r="B264" s="10">
         <v>41607</v>
       </c>
@@ -4881,7 +4892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:6">
       <c r="B265" s="10">
         <v>41621</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:6">
       <c r="B266" s="4">
         <v>41656</v>
       </c>
@@ -4915,7 +4926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:6">
       <c r="B267" s="10">
         <v>41670</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:6">
       <c r="B268" s="10">
         <v>41691</v>
       </c>
@@ -4949,7 +4960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:6">
       <c r="B269" s="4">
         <v>41712</v>
       </c>
@@ -4966,7 +4977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:6">
       <c r="B270" s="4">
         <v>41726</v>
       </c>
@@ -4983,7 +4994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:6">
       <c r="B271" s="10">
         <v>41740</v>
       </c>
@@ -5000,7 +5011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:6">
       <c r="B272" s="10">
         <v>41768</v>
       </c>
@@ -5017,7 +5028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6">
       <c r="B273" s="10">
         <v>41795</v>
       </c>
@@ -5034,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:6">
       <c r="B274" s="10">
         <v>41817</v>
       </c>
@@ -5051,7 +5062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:6">
       <c r="B275" s="10">
         <v>41838</v>
       </c>
@@ -5068,7 +5079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:6">
       <c r="B276" s="10">
         <v>41873</v>
       </c>
@@ -5085,7 +5096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:6">
       <c r="B277" s="10">
         <v>41887</v>
       </c>
@@ -5102,7 +5113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:6">
       <c r="B278" s="10">
         <v>41908</v>
       </c>
@@ -5119,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:6">
       <c r="B279" s="10">
         <v>41922</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:6">
       <c r="B280" s="10">
         <v>41936</v>
       </c>
@@ -5153,7 +5164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:6">
       <c r="B281" s="10">
         <v>41957</v>
       </c>
@@ -5170,7 +5181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:6">
       <c r="B282" s="10">
         <v>41971</v>
       </c>
@@ -5187,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:6">
       <c r="B283" s="10">
         <v>41985</v>
       </c>
@@ -5204,7 +5215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:6">
       <c r="B284" s="10">
         <v>42020</v>
       </c>
@@ -5221,7 +5232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:6">
       <c r="B285" s="10">
         <v>42034</v>
       </c>
@@ -5238,7 +5249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:6">
       <c r="B286" s="10">
         <v>42062</v>
       </c>
@@ -5255,7 +5266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:6">
       <c r="B287" s="10">
         <v>42076</v>
       </c>
@@ -5272,7 +5283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:6">
       <c r="B288" s="10">
         <v>42090</v>
       </c>
@@ -5289,7 +5300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:6">
       <c r="B289" s="10">
         <v>42111</v>
       </c>
@@ -5306,7 +5317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:6">
       <c r="B290" s="10">
         <v>42146</v>
       </c>
@@ -5323,7 +5334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:6">
       <c r="B291" s="10">
         <v>42167</v>
       </c>
@@ -5340,7 +5351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:6">
       <c r="B292" s="10">
         <v>42188</v>
       </c>
@@ -5357,7 +5368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:6">
       <c r="B293" s="10">
         <v>42209</v>
       </c>
@@ -5374,7 +5385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:6">
       <c r="B294" s="4">
         <v>42237</v>
       </c>
@@ -5391,7 +5402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:6">
       <c r="B295" s="10">
         <v>42258</v>
       </c>
@@ -5408,7 +5419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:6">
       <c r="B296" s="6">
         <v>42272</v>
       </c>
@@ -5425,7 +5436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:6">
       <c r="B297" s="10">
         <v>42286</v>
       </c>
@@ -5442,7 +5453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:6">
       <c r="B298" s="10">
         <v>42300</v>
       </c>
@@ -5459,7 +5470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:6">
       <c r="B299" s="10">
         <v>42321</v>
       </c>
@@ -5476,7 +5487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:6">
       <c r="B300" s="10">
         <v>42335</v>
       </c>
@@ -5493,7 +5504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:6">
       <c r="B301" s="10">
         <v>42349</v>
       </c>
@@ -5510,7 +5521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:6">
       <c r="B302" s="10">
         <v>42384</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:6">
       <c r="B303" s="10">
         <v>42419</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:6">
       <c r="B304" s="10">
         <v>42447</v>
       </c>
@@ -5561,7 +5572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:6">
       <c r="B305" s="10">
         <v>42468</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:6">
       <c r="B306" s="10">
         <v>42503</v>
       </c>
@@ -5595,7 +5606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:6">
       <c r="B307" s="10">
         <v>42524</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:6">
       <c r="B308" s="10">
         <v>42573</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:6">
       <c r="B309" s="10">
         <v>42594</v>
       </c>
@@ -5646,7 +5657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:6">
       <c r="B310" s="10">
         <v>42636</v>
       </c>
@@ -5663,7 +5674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:6">
       <c r="B311" s="10">
         <v>42657</v>
       </c>
@@ -5680,7 +5691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:6">
       <c r="B312" s="10">
         <v>42685</v>
       </c>
@@ -5697,7 +5708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:6">
       <c r="B313" s="10">
         <v>42699</v>
       </c>
@@ -5714,7 +5725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:6">
       <c r="B314" s="10">
         <v>42713</v>
       </c>
@@ -5731,7 +5742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:6">
       <c r="B315" s="10">
         <v>42748</v>
       </c>
@@ -5748,7 +5759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:6">
       <c r="B316" s="4">
         <v>42783</v>
       </c>
@@ -5765,7 +5776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:6">
       <c r="B317" s="10">
         <v>42804</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:6">
       <c r="B318" s="10">
         <v>42832</v>
       </c>
@@ -5808,35 +5819,50 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle2"/>
+  <sheetPr codeName="Tabelle2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Tabelle3"/>
+  <sheetPr codeName="Tabelle3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>